--- a/data/documentation/spreadsheets/done/babel@babel.xlsx
+++ b/data/documentation/spreadsheets/done/babel@babel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEE012F-555D-445C-9DBB-03F5DFF738AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3806E8-6EDA-4D4C-B1BD-B40EFB1210C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="143">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -806,18 +806,18 @@
   <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G140" sqref="G140"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.8984375" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="34.90234375" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,12 +837,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -850,12 +850,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -863,7 +863,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -871,7 +871,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -879,7 +879,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -887,7 +887,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -895,7 +895,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -903,7 +903,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -911,7 +911,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -919,7 +919,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -927,7 +927,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -935,7 +935,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -943,7 +943,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -951,7 +951,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -959,7 +959,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -967,7 +967,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -975,7 +975,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -983,7 +983,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -991,7 +991,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -999,7 +999,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -1095,66 +1095,63 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F35" t="s">
-        <v>142</v>
-      </c>
       <c r="G35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -1170,7 +1167,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1183,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -1210,7 +1207,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -1218,7 +1215,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>56</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>57</v>
       </c>
@@ -1250,7 +1247,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>58</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>59</v>
       </c>
@@ -1266,7 +1263,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>60</v>
       </c>
@@ -1274,7 +1271,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>64</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>65</v>
       </c>
@@ -1314,7 +1311,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>66</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>67</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>68</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>69</v>
       </c>
@@ -1346,7 +1343,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7" t="s">
         <v>70</v>
       </c>
@@ -1354,7 +1351,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>71</v>
       </c>
@@ -1362,7 +1359,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>72</v>
       </c>
@@ -1370,7 +1367,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
@@ -1378,7 +1375,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
         <v>74</v>
       </c>
@@ -1386,7 +1383,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7" t="s">
         <v>75</v>
       </c>
@@ -1394,7 +1391,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7" t="s">
         <v>76</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
         <v>77</v>
       </c>
@@ -1410,7 +1407,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7" t="s">
         <v>78</v>
       </c>
@@ -1418,7 +1415,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
         <v>79</v>
       </c>
@@ -1426,7 +1423,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7" t="s">
         <v>80</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7" t="s">
         <v>81</v>
       </c>
@@ -1442,7 +1439,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7" t="s">
         <v>82</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7" t="s">
         <v>83</v>
       </c>
@@ -1458,7 +1455,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7" t="s">
         <v>85</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>86</v>
       </c>
@@ -1482,7 +1479,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>87</v>
       </c>
@@ -1490,7 +1487,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>88</v>
       </c>
@@ -1498,7 +1495,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7" t="s">
         <v>89</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7" t="s">
         <v>90</v>
       </c>
@@ -1514,7 +1511,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7" t="s">
         <v>91</v>
       </c>
@@ -1522,7 +1519,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
         <v>92</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
         <v>93</v>
       </c>
@@ -1538,7 +1535,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
         <v>94</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7" t="s">
         <v>95</v>
       </c>
@@ -1554,7 +1551,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7" t="s">
         <v>96</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7" t="s">
         <v>97</v>
       </c>
@@ -1570,7 +1567,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
         <v>32</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
         <v>98</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
         <v>99</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7" t="s">
         <v>100</v>
       </c>
@@ -1602,7 +1599,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7" t="s">
         <v>101</v>
       </c>
@@ -1610,57 +1607,57 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="7" t="s">
         <v>112</v>
       </c>
@@ -1668,7 +1665,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="7" t="s">
         <v>113</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7" t="s">
         <v>114</v>
       </c>
@@ -1684,7 +1681,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7" t="s">
         <v>115</v>
       </c>
@@ -1692,7 +1689,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
         <v>116</v>
       </c>
@@ -1700,7 +1697,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
         <v>32</v>
       </c>
@@ -1708,31 +1705,31 @@
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="7" t="s">
         <v>120</v>
       </c>
@@ -1740,121 +1737,172 @@
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F119" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G120" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="7" t="s">
         <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
